--- a/assay_master_sheet.xlsx
+++ b/assay_master_sheet.xlsx
@@ -1,62 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20392"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notjello\Documents\GitHub\Biomarker-Master-Sheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D8C6FE-45AB-400F-969C-24F1F203A246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="10">
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>StudyID</t>
-  </si>
-  <si>
-    <t>COVID19</t>
-  </si>
-  <si>
-    <t>Urine_sFas_V1 (pg/mL)</t>
-  </si>
-  <si>
-    <t>Urine_Ang-2_V1 (pg/mL)</t>
-  </si>
-  <si>
-    <t>Urine_IL-18_V1 (pg/mL)</t>
-  </si>
-  <si>
-    <t>Urine_NGAL_V1 (pg/mL)</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,408 +350,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sample</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>StudyID</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>COVID19</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Urine_sFas_V1 (pg/mL)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Urine_Ang-2_V1 (pg/mL)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Urine_IL-18_V1 (pg/mL)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Urine_NGAL_V1 (pg/mL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>51</v>
       </c>
       <c r="B2">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D2">
         <v>21241.892041428</v>
       </c>
       <c r="E2">
-        <v>4150.3039409279199</v>
+        <v>4150.30394092792</v>
       </c>
       <c r="F2">
         <v>16234.7656443713</v>
       </c>
       <c r="G2">
-        <v>9189061.7599456795</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9189061.759945679</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>52</v>
       </c>
       <c r="B3">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D3">
-        <v>2089.0395102023399</v>
+        <v>2089.03951020234</v>
       </c>
       <c r="E3">
-        <v>22.009688591453099</v>
+        <v>22.0096885914531</v>
       </c>
       <c r="F3">
-        <v>382.22254175583799</v>
+        <v>382.222541755838</v>
       </c>
       <c r="G3">
-        <v>58077.146628437004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58077.146628437</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>57</v>
       </c>
       <c r="B4">
         <v>57</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D4">
-        <v>986.98667839259497</v>
+        <v>986.986678392595</v>
       </c>
       <c r="F4">
-        <v>79.715577098017903</v>
+        <v>79.7155770980179</v>
       </c>
       <c r="G4">
-        <v>23963.587631997201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>23963.5876319972</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>58</v>
       </c>
       <c r="B5">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D5">
-        <v>6200.1262182399296</v>
+        <v>6200.12621823993</v>
       </c>
       <c r="E5">
         <v>1026.22835468325</v>
       </c>
       <c r="F5">
-        <v>68.387061865583306</v>
+        <v>68.38706186558331</v>
       </c>
       <c r="G5">
-        <v>2467817.2460502898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2467817.24605029</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>60</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D6">
-        <v>4195.3053136561302</v>
+        <v>4195.30531365613</v>
       </c>
       <c r="E6">
-        <v>65.408839958443295</v>
+        <v>65.40883995844329</v>
       </c>
       <c r="F6">
         <v>1262.23342493363</v>
       </c>
       <c r="G6">
-        <v>114521.91220877699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>114521.912208777</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>64</v>
       </c>
       <c r="B7">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D7">
-        <v>86792.652121440406</v>
+        <v>86792.65212144041</v>
       </c>
       <c r="E7">
-        <v>2341.9246545118099</v>
+        <v>2341.92465451181</v>
       </c>
       <c r="F7">
-        <v>401.91787308924398</v>
+        <v>401.917873089244</v>
       </c>
       <c r="G7">
-        <v>10730584.032121301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10730584.0321213</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>66</v>
       </c>
       <c r="B8">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D8">
-        <v>4129.7633101361798</v>
+        <v>4129.76331013618</v>
       </c>
       <c r="F8">
         <v>244.489618294807</v>
       </c>
       <c r="G8">
-        <v>17071.289307007301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17071.2893070073</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>67</v>
       </c>
       <c r="B9">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D9">
-        <v>4899.1365009375804</v>
+        <v>4899.13650093758</v>
       </c>
       <c r="F9">
-        <v>150.60959702802501</v>
+        <v>150.609597028025</v>
       </c>
       <c r="G9">
-        <v>352764.00572468102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352764.005724681</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>68</v>
       </c>
       <c r="B10">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D10">
-        <v>4839.1544243530998</v>
+        <v>4839.1544243531</v>
       </c>
       <c r="F10">
-        <v>924.32875337963605</v>
+        <v>924.3287533796361</v>
       </c>
       <c r="G10">
         <v>170689.127233479</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11">
         <v>69</v>
       </c>
       <c r="B11">
         <v>69</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D11">
-        <v>666.67035193677702</v>
+        <v>666.670351936777</v>
       </c>
       <c r="F11">
-        <v>86.794405100495297</v>
+        <v>86.7944051004953</v>
       </c>
       <c r="G11">
-        <v>8646.0576322997895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8646.057632299789</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>70</v>
       </c>
       <c r="B12">
         <v>70</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D12">
         <v>12098.4948105036</v>
       </c>
       <c r="E12">
-        <v>368.60165602560198</v>
+        <v>368.601656025602</v>
       </c>
       <c r="F12">
-        <v>248.99368347386499</v>
+        <v>248.993683473865</v>
       </c>
       <c r="G12">
-        <v>412365.08363064099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>412365.083630641</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>74</v>
       </c>
       <c r="B13">
         <v>74</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D13">
-        <v>7515.3515157585298</v>
+        <v>7515.35151575853</v>
       </c>
       <c r="E13">
         <v>1489.99833238676</v>
       </c>
       <c r="F13">
-        <v>89.896846028942093</v>
+        <v>89.89684602894209</v>
       </c>
       <c r="G13">
-        <v>3926504.4163963702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3926504.41639637</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>76</v>
       </c>
       <c r="B14">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D14">
-        <v>3061.0977530656301</v>
+        <v>3061.09775306563</v>
       </c>
       <c r="E14">
-        <v>197.47289126688301</v>
+        <v>197.472891266883</v>
       </c>
       <c r="F14">
         <v>103.707736631977</v>
       </c>
       <c r="G14">
-        <v>62988.412583566402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62988.4125835664</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>77</v>
       </c>
       <c r="B15">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D15">
-        <v>7171.1635943580004</v>
+        <v>7171.163594358</v>
       </c>
       <c r="E15">
-        <v>722.91366342048195</v>
+        <v>722.913663420482</v>
       </c>
       <c r="F15">
         <v>167.322035601652</v>
       </c>
       <c r="G15">
-        <v>4737460.5901707001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4737460.5901707</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>81</v>
       </c>
       <c r="B16">
         <v>81</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D16">
-        <v>419.35143503009999</v>
+        <v>419.3514350301</v>
       </c>
       <c r="E16">
-        <v>226.91216878025401</v>
+        <v>226.912168780254</v>
       </c>
       <c r="F16">
-        <v>502.17867106679699</v>
+        <v>502.178671066797</v>
       </c>
       <c r="G16">
-        <v>17838.676341688199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17838.6763416882</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>82</v>
       </c>
       <c r="B17">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D17">
-        <v>2736.7019673616201</v>
+        <v>2736.70196736162</v>
       </c>
       <c r="E17">
-        <v>198.42018463811601</v>
+        <v>198.420184638116</v>
       </c>
       <c r="F17">
         <v>1392.46766020828</v>
       </c>
       <c r="G17">
-        <v>47565.593190408501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47565.5931904085</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>83</v>
       </c>
       <c r="B18">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D18">
         <v>7441.46765184578</v>
@@ -845,67 +798,73 @@
         <v>215.29429630649</v>
       </c>
       <c r="G18">
-        <v>4755262.1110391598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4755262.11103916</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>84</v>
       </c>
       <c r="B19">
         <v>84</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D19">
-        <v>8653.4060958031296</v>
+        <v>8653.40609580313</v>
       </c>
       <c r="E19">
-        <v>168.98090712474499</v>
+        <v>168.980907124745</v>
       </c>
       <c r="F19">
-        <v>262.27237698805101</v>
+        <v>262.272376988051</v>
       </c>
       <c r="G19">
         <v>2512178.29438368</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20">
         <v>86</v>
       </c>
       <c r="B20">
         <v>86</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D20">
-        <v>8041.5648684461203</v>
+        <v>8041.56486844612</v>
       </c>
       <c r="E20">
         <v>190.199501384489</v>
       </c>
       <c r="F20">
-        <v>149.41519291030599</v>
+        <v>149.415192910306</v>
       </c>
       <c r="G20">
-        <v>981536.22526287904</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>981536.225262879</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>87</v>
       </c>
       <c r="B21">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D21">
-        <v>1668.2245864015899</v>
+        <v>1668.22458640159</v>
       </c>
       <c r="F21">
         <v>104.389514034012</v>
@@ -914,18 +873,20 @@
         <v>16884.0359032817</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22">
         <v>92</v>
       </c>
       <c r="B22">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D22">
-        <v>5789.8507578238296</v>
+        <v>5789.85075782383</v>
       </c>
       <c r="E22">
         <v>389.956423443522</v>
@@ -937,41 +898,45 @@
         <v>250901.204530627</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23">
         <v>93</v>
       </c>
       <c r="B23">
         <v>93</v>
       </c>
-      <c r="C23" t="s">
-        <v>8</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D23">
-        <v>3680.3249705163398</v>
+        <v>3680.32497051634</v>
       </c>
       <c r="E23">
-        <v>606.20359197612504</v>
+        <v>606.203591976125</v>
       </c>
       <c r="F23">
-        <v>174.22281809277999</v>
+        <v>174.22281809278</v>
       </c>
       <c r="G23">
         <v>10580668.6490785</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24">
         <v>96</v>
       </c>
       <c r="B24">
         <v>96</v>
       </c>
-      <c r="C24" t="s">
-        <v>8</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D24">
-        <v>546.95315582083197</v>
+        <v>546.953155820832</v>
       </c>
       <c r="F24">
         <v>35.9875649702525</v>
@@ -980,245 +945,267 @@
         <v>19930.0057696363</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25">
         <v>97</v>
       </c>
       <c r="B25">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
-        <v>8</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D25">
-        <v>1242.6065369827099</v>
+        <v>1242.60653698271</v>
       </c>
       <c r="F25">
-        <v>266.00916879087498</v>
+        <v>266.009168790875</v>
       </c>
       <c r="G25">
-        <v>71696.947443396493</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71696.94744339649</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
         <v>98</v>
       </c>
       <c r="B26">
         <v>98</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D26">
         <v>1768.9060863503</v>
       </c>
       <c r="E26">
-        <v>41.465366990535301</v>
+        <v>41.4653669905353</v>
       </c>
       <c r="F26">
-        <v>53.986079785098703</v>
+        <v>53.9860797850987</v>
       </c>
       <c r="G26">
-        <v>1383770.0918254701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1383770.09182547</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>99</v>
       </c>
       <c r="B27">
         <v>99</v>
       </c>
-      <c r="C27" t="s">
-        <v>8</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D27">
-        <v>2337.4463276257602</v>
+        <v>2337.44632762576</v>
       </c>
       <c r="E27">
         <v>67.8630415507469</v>
       </c>
       <c r="F27">
-        <v>178.56262948987299</v>
+        <v>178.562629489873</v>
       </c>
       <c r="G27">
         <v>273478.232007413</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28">
         <v>103</v>
       </c>
       <c r="B28">
         <v>103</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D28">
-        <v>835.63530290186804</v>
+        <v>835.635302901868</v>
       </c>
       <c r="E28">
-        <v>63.404974718924102</v>
+        <v>63.4049747189241</v>
       </c>
       <c r="F28">
-        <v>3827.6659747366102</v>
+        <v>3827.66597473661</v>
       </c>
       <c r="G28">
         <v>231031.702944688</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29">
         <v>111</v>
       </c>
       <c r="B29">
         <v>111</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D29">
-        <v>1317.9731255331801</v>
+        <v>1317.97312553318</v>
       </c>
       <c r="E29">
         <v>21.4584712309758</v>
       </c>
       <c r="F29">
-        <v>1635.9092511128799</v>
+        <v>1635.90925111288</v>
       </c>
       <c r="G29">
-        <v>128982.46567628501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128982.465676285</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>115</v>
       </c>
       <c r="B30">
         <v>115</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D30">
-        <v>365.43438755520401</v>
+        <v>365.434387555204</v>
       </c>
       <c r="F30">
-        <v>95.624421718193702</v>
+        <v>95.6244217181937</v>
       </c>
       <c r="G30">
-        <v>17363.384117566398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17363.3841175664</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>117</v>
       </c>
       <c r="B31">
         <v>117</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D31">
-        <v>4434.4596359257903</v>
+        <v>4434.45963592579</v>
       </c>
       <c r="E31">
-        <v>30.187276569873301</v>
+        <v>30.1872765698733</v>
       </c>
       <c r="F31">
-        <v>1720.2653694406399</v>
+        <v>1720.26536944064</v>
       </c>
       <c r="G31">
-        <v>1345755.7535900299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1345755.75359003</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>118</v>
       </c>
       <c r="B32">
         <v>118</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D32">
         <v>11548.1925113631</v>
       </c>
       <c r="E32">
-        <v>92.242673048903598</v>
+        <v>92.2426730489036</v>
       </c>
       <c r="F32">
-        <v>90.967851697237094</v>
+        <v>90.96785169723709</v>
       </c>
       <c r="G32">
-        <v>35385.518801524398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35385.5188015244</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
         <v>120</v>
       </c>
       <c r="B33">
         <v>120</v>
       </c>
-      <c r="C33" t="s">
-        <v>8</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D33">
-        <v>4584.0105100705496</v>
+        <v>4584.01051007055</v>
       </c>
       <c r="E33">
-        <v>632.61457116544295</v>
+        <v>632.614571165443</v>
       </c>
       <c r="F33">
-        <v>131.88630651149899</v>
+        <v>131.886306511499</v>
       </c>
       <c r="G33">
-        <v>14288096.581055701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14288096.5810557</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34">
         <v>121</v>
       </c>
       <c r="B34">
         <v>121</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D34">
-        <v>4463.9683975018397</v>
+        <v>4463.96839750184</v>
       </c>
       <c r="E34">
-        <v>162.99312514787599</v>
+        <v>162.993125147876</v>
       </c>
       <c r="F34">
-        <v>809.65187211980003</v>
+        <v>809.6518721198</v>
       </c>
       <c r="G34">
         <v>215714.600271437</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35">
         <v>122</v>
       </c>
       <c r="B35">
         <v>122</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D35">
-        <v>5747.9799608633002</v>
+        <v>5747.9799608633</v>
       </c>
       <c r="E35">
-        <v>327.92994399615498</v>
+        <v>327.929943996155</v>
       </c>
       <c r="F35">
         <v>2897.15267770215</v>
@@ -1227,176 +1214,192 @@
         <v>433096.830927954</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36">
         <v>123</v>
       </c>
       <c r="B36">
         <v>123</v>
       </c>
-      <c r="C36" t="s">
-        <v>8</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D36">
         <v>11139.629441972</v>
       </c>
       <c r="F36">
-        <v>290.14655708959202</v>
+        <v>290.146557089592</v>
       </c>
       <c r="G36">
-        <v>504777.24559844303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>504777.245598443</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37">
         <v>127</v>
       </c>
       <c r="B37">
         <v>127</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D37">
-        <v>4801.3082987456301</v>
+        <v>4801.30829874563</v>
       </c>
       <c r="E37">
-        <v>125.26284255478301</v>
+        <v>125.262842554783</v>
       </c>
       <c r="F37">
-        <v>386.09746021583601</v>
+        <v>386.097460215836</v>
       </c>
       <c r="G37">
-        <v>765408.70037099102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>765408.700370991</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38">
         <v>129</v>
       </c>
       <c r="B38">
         <v>129</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D38">
         <v>4611.16461189454</v>
       </c>
       <c r="E38">
-        <v>85.361255121132103</v>
+        <v>85.3612551211321</v>
       </c>
       <c r="F38">
-        <v>736.74316751272499</v>
+        <v>736.743167512725</v>
       </c>
       <c r="G38">
-        <v>90097.157158087502</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90097.1571580875</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39">
         <v>130</v>
       </c>
       <c r="B39">
         <v>130</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D39">
-        <v>3097.9429211084098</v>
+        <v>3097.94292110841</v>
       </c>
       <c r="F39">
-        <v>1957.1033433238999</v>
+        <v>1957.1033433239</v>
       </c>
       <c r="G39">
-        <v>24865.735314712401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24865.7353147124</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40">
         <v>131</v>
       </c>
       <c r="B40">
         <v>131</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D40">
         <v>18685.2460495659</v>
       </c>
       <c r="E40">
-        <v>37.842492324326599</v>
+        <v>37.8424923243266</v>
       </c>
       <c r="F40">
-        <v>2518.7635501995501</v>
+        <v>2518.76355019955</v>
       </c>
       <c r="G40">
-        <v>162784.77655131699</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162784.776551317</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41">
         <v>136</v>
       </c>
       <c r="B41">
         <v>136</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D41">
-        <v>9756.6438969007995</v>
+        <v>9756.6438969008</v>
       </c>
       <c r="E41">
-        <v>88.577394088103006</v>
+        <v>88.57739408810301</v>
       </c>
       <c r="F41">
         <v>359.506964317354</v>
       </c>
       <c r="G41">
-        <v>212051.16768126999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212051.16768127</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42">
         <v>138</v>
       </c>
       <c r="B42">
         <v>138</v>
       </c>
-      <c r="C42" t="s">
-        <v>7</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D42">
         <v>7409.75444800889</v>
       </c>
       <c r="E42">
-        <v>52.491727580267302</v>
+        <v>52.4917275802673</v>
       </c>
       <c r="F42">
-        <v>554.84085153104502</v>
+        <v>554.840851531045</v>
       </c>
       <c r="G42">
-        <v>255492.99850811201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>255492.998508112</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43">
         <v>140</v>
       </c>
       <c r="B43">
         <v>140</v>
       </c>
-      <c r="C43" t="s">
-        <v>7</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D43">
         <v>1957.42847169176</v>
       </c>
       <c r="E43">
-        <v>9.7249723583627397</v>
+        <v>9.72497235836274</v>
       </c>
       <c r="F43">
         <v>254.533149150263</v>
@@ -1405,417 +1408,455 @@
         <v>74768.887720207</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44">
         <v>141</v>
       </c>
       <c r="B44">
         <v>141</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D44">
         <v>16139.0826711713</v>
       </c>
       <c r="E44">
-        <v>3898.6859817382601</v>
+        <v>3898.68598173826</v>
       </c>
       <c r="F44">
-        <v>2043.0544251497199</v>
+        <v>2043.05442514972</v>
       </c>
       <c r="G44">
-        <v>28345245.103562199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28345245.1035622</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45">
         <v>143</v>
       </c>
       <c r="B45">
         <v>143</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D45">
-        <v>67864.144909244904</v>
+        <v>67864.1449092449</v>
       </c>
       <c r="E45">
         <v>10606.3598338223</v>
       </c>
       <c r="F45">
-        <v>112421.52781383799</v>
+        <v>112421.527813838</v>
       </c>
       <c r="G45">
-        <v>28937209.217084799</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28937209.2170848</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46">
         <v>144</v>
       </c>
       <c r="B46">
         <v>144</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D46">
-        <v>6706.5793534467502</v>
+        <v>6706.57935344675</v>
       </c>
       <c r="F46">
-        <v>49.621527989281901</v>
+        <v>49.6215279892819</v>
       </c>
       <c r="G46">
-        <v>916869.62914950796</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>916869.629149508</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47">
         <v>147</v>
       </c>
       <c r="B47">
         <v>147</v>
       </c>
-      <c r="C47" t="s">
-        <v>8</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D47">
-        <v>7065.0313987607697</v>
+        <v>7065.03139876077</v>
       </c>
       <c r="E47">
-        <v>76.263127297915602</v>
+        <v>76.2631272979156</v>
       </c>
       <c r="F47">
-        <v>151.35218595480501</v>
+        <v>151.352185954805</v>
       </c>
       <c r="G47">
-        <v>85304.506009052202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85304.5060090522</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48">
         <v>150</v>
       </c>
       <c r="B48">
         <v>150</v>
       </c>
-      <c r="C48" t="s">
-        <v>8</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D48">
-        <v>8357.9572700528006</v>
+        <v>8357.957270052801</v>
       </c>
       <c r="E48">
-        <v>82.886723345738105</v>
+        <v>82.8867233457381</v>
       </c>
       <c r="F48">
         <v>105.484901837585</v>
       </c>
       <c r="G48">
-        <v>59311.127632420001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59311.12763242</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49">
         <v>151</v>
       </c>
       <c r="B49">
         <v>151</v>
       </c>
-      <c r="C49" t="s">
-        <v>7</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D49">
-        <v>4227.8192636997201</v>
+        <v>4227.81926369972</v>
       </c>
       <c r="F49">
         <v>273.01402985439</v>
       </c>
       <c r="G49">
-        <v>20053.396656106601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20053.3966561066</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50">
         <v>152</v>
       </c>
       <c r="B50">
         <v>152</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D50">
-        <v>16848.472546900601</v>
+        <v>16848.4725469006</v>
       </c>
       <c r="E50">
-        <v>549.86231322850404</v>
+        <v>549.862313228504</v>
       </c>
       <c r="F50">
         <v>27569.7910716718</v>
       </c>
       <c r="G50">
-        <v>5375713.0284391902</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5375713.02843919</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51">
         <v>153</v>
       </c>
       <c r="B51">
         <v>153</v>
       </c>
-      <c r="C51" t="s">
-        <v>8</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D51">
         <v>2001.36456315548</v>
       </c>
       <c r="E51">
-        <v>87.853186243044604</v>
+        <v>87.8531862430446</v>
       </c>
       <c r="F51">
-        <v>511.75216467260498</v>
+        <v>511.752164672605</v>
       </c>
       <c r="G51">
         <v>535906.143437071</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52">
         <v>154</v>
       </c>
       <c r="B52">
         <v>154</v>
       </c>
-      <c r="C52" t="s">
-        <v>8</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D52">
-        <v>6121.2882002056203</v>
+        <v>6121.28820020562</v>
       </c>
       <c r="E52">
         <v>176.116072360293</v>
       </c>
       <c r="F52">
-        <v>592.58974964048798</v>
+        <v>592.589749640488</v>
       </c>
       <c r="G52">
-        <v>250841.78181256299</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250841.781812563</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53">
         <v>155</v>
       </c>
       <c r="B53">
         <v>155</v>
       </c>
-      <c r="C53" t="s">
-        <v>7</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D53">
-        <v>9250.7423576255496</v>
+        <v>9250.74235762555</v>
       </c>
       <c r="E53">
-        <v>67.740365578245502</v>
+        <v>67.7403655782455</v>
       </c>
       <c r="F53">
-        <v>948.59510731088005</v>
+        <v>948.5951073108801</v>
       </c>
       <c r="G53">
         <v>240932.640454951</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54">
         <v>156</v>
       </c>
       <c r="B54">
         <v>156</v>
       </c>
-      <c r="C54" t="s">
-        <v>7</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D54">
-        <v>5411.2590872178698</v>
+        <v>5411.25908721787</v>
       </c>
       <c r="F54">
-        <v>329.92124674431898</v>
+        <v>329.921246744319</v>
       </c>
       <c r="G54">
-        <v>52412.274586011103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52412.2745860111</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55">
         <v>157</v>
       </c>
       <c r="B55">
         <v>157</v>
       </c>
-      <c r="C55" t="s">
-        <v>7</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D55">
-        <v>5873.8536916909698</v>
+        <v>5873.85369169097</v>
       </c>
       <c r="F55">
-        <v>543.88123986897494</v>
+        <v>543.8812398689749</v>
       </c>
       <c r="G55">
-        <v>64972.160652551902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64972.1606525519</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56">
         <v>158</v>
       </c>
       <c r="B56">
         <v>158</v>
       </c>
-      <c r="C56" t="s">
-        <v>7</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D56">
-        <v>795.02365815372002</v>
+        <v>795.02365815372</v>
       </c>
       <c r="F56">
-        <v>48.308776343532898</v>
+        <v>48.3087763435329</v>
       </c>
       <c r="G56">
         <v>3053.93891360203</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57">
         <v>159</v>
       </c>
       <c r="B57">
         <v>159</v>
       </c>
-      <c r="C57" t="s">
-        <v>8</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D57">
-        <v>1710.4273686676099</v>
+        <v>1710.42736866761</v>
       </c>
       <c r="E57">
-        <v>507.09405885509898</v>
+        <v>507.094058855099</v>
       </c>
       <c r="F57">
-        <v>680.52874778355203</v>
+        <v>680.528747783552</v>
       </c>
       <c r="G57">
-        <v>1118689.2354333799</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1118689.23543338</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58">
         <v>160</v>
       </c>
       <c r="B58">
         <v>160</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D58">
-        <v>3439.0268731471101</v>
+        <v>3439.02687314711</v>
       </c>
       <c r="F58">
         <v>125.491571750389</v>
       </c>
       <c r="G58">
-        <v>85756.407397275005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85756.407397275</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59">
         <v>162</v>
       </c>
       <c r="B59">
         <v>162</v>
       </c>
-      <c r="C59" t="s">
-        <v>8</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D59">
-        <v>3542.7261934141502</v>
+        <v>3542.72619341415</v>
       </c>
       <c r="E59">
-        <v>168.98090712474499</v>
+        <v>168.980907124745</v>
       </c>
       <c r="F59">
         <v>110.477629349312</v>
       </c>
       <c r="G59">
-        <v>45037.341927011599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45037.3419270116</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60">
         <v>163</v>
       </c>
       <c r="B60">
         <v>163</v>
       </c>
-      <c r="C60" t="s">
-        <v>8</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D60">
-        <v>3276.2707772140202</v>
+        <v>3276.27077721402</v>
       </c>
       <c r="E60">
-        <v>312.47691606439503</v>
+        <v>312.476916064395</v>
       </c>
       <c r="F60">
-        <v>565.82545882749901</v>
+        <v>565.825458827499</v>
       </c>
       <c r="G60">
-        <v>468339.63770285202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>468339.637702852</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61">
         <v>164</v>
       </c>
       <c r="B61">
         <v>164</v>
       </c>
-      <c r="C61" t="s">
-        <v>8</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D61">
         <v>1751.28015976043</v>
       </c>
       <c r="E61">
-        <v>195.29358867413001</v>
+        <v>195.29358867413</v>
       </c>
       <c r="F61">
-        <v>11468.644109413301</v>
+        <v>11468.6441094133</v>
       </c>
       <c r="G61">
-        <v>134549.25336490499</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>134549.253364905</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62">
         <v>165</v>
       </c>
       <c r="B62">
         <v>165</v>
       </c>
-      <c r="C62" t="s">
-        <v>7</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D62">
-        <v>39357.785161641601</v>
+        <v>39357.7851616416</v>
       </c>
       <c r="E62">
-        <v>938.73326798586595</v>
+        <v>938.733267985866</v>
       </c>
       <c r="F62">
         <v>117.626925999185</v>
@@ -1824,81 +1865,89 @@
         <v>10537789.2275951</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63">
         <v>166</v>
       </c>
       <c r="B63">
         <v>166</v>
       </c>
-      <c r="C63" t="s">
-        <v>8</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D63">
         <v>3412.97850206156</v>
       </c>
       <c r="E63">
-        <v>227.30627413421101</v>
+        <v>227.306274134211</v>
       </c>
       <c r="F63">
-        <v>62.150213897130897</v>
+        <v>62.1502138971309</v>
       </c>
       <c r="G63">
-        <v>780579.81787093403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>780579.817870934</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64">
         <v>167</v>
       </c>
       <c r="B64">
         <v>167</v>
       </c>
-      <c r="C64" t="s">
-        <v>7</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D64">
-        <v>4914.1313993696704</v>
+        <v>4914.13139936967</v>
       </c>
       <c r="E64">
         <v>305.898862664852</v>
       </c>
       <c r="F64">
-        <v>33.720674442303597</v>
+        <v>33.7206744423036</v>
       </c>
       <c r="G64">
-        <v>71814.404347443895</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71814.40434744389</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65">
         <v>169</v>
       </c>
       <c r="B65">
         <v>169</v>
       </c>
-      <c r="C65" t="s">
-        <v>8</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D65">
-        <v>1909.0778413222599</v>
+        <v>1909.07784132226</v>
       </c>
       <c r="F65">
-        <v>427.19817796163397</v>
+        <v>427.198177961634</v>
       </c>
       <c r="G65">
-        <v>169338.97489467301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169338.974894673</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66">
         <v>170</v>
       </c>
       <c r="B66">
         <v>170</v>
       </c>
-      <c r="C66" t="s">
-        <v>7</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D66">
         <v>3588.49144774144</v>
@@ -1907,127 +1956,139 @@
         <v>15.1113345629251</v>
       </c>
       <c r="F66">
-        <v>725.25567662907201</v>
+        <v>725.255676629072</v>
       </c>
       <c r="G66">
-        <v>28956.220407791701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28956.2204077917</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67">
         <v>171</v>
       </c>
       <c r="B67">
         <v>171</v>
       </c>
-      <c r="C67" t="s">
-        <v>7</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D67">
-        <v>1119.7866509917001</v>
+        <v>1119.7866509917</v>
       </c>
       <c r="F67">
         <v>62.5584970733521</v>
       </c>
       <c r="G67">
-        <v>59710.132870002599</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59710.1328700026</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68">
         <v>172</v>
       </c>
       <c r="B68">
         <v>172</v>
       </c>
-      <c r="C68" t="s">
-        <v>7</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D68">
         <v>7296.10696260638</v>
       </c>
       <c r="F68">
-        <v>1357.4818977683001</v>
+        <v>1357.4818977683</v>
       </c>
       <c r="G68">
-        <v>426398.02904468903</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>426398.029044689</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69">
         <v>173</v>
       </c>
       <c r="B69">
         <v>173</v>
       </c>
-      <c r="C69" t="s">
-        <v>7</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D69">
-        <v>3799.5886856872198</v>
+        <v>3799.58868568722</v>
       </c>
       <c r="F69">
         <v>404.274354340939</v>
       </c>
       <c r="G69">
-        <v>28712.218912970398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28712.2189129704</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70">
         <v>174</v>
       </c>
       <c r="B70">
         <v>174</v>
       </c>
-      <c r="C70" t="s">
-        <v>7</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D70">
-        <v>8969.5703135472395</v>
+        <v>8969.570313547239</v>
       </c>
       <c r="E70">
-        <v>81.329656768914504</v>
+        <v>81.3296567689145</v>
       </c>
       <c r="F70">
-        <v>471.89630308591899</v>
+        <v>471.896303085919</v>
       </c>
       <c r="G70">
-        <v>1069875.5419254201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1069875.54192542</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71">
         <v>175</v>
       </c>
       <c r="B71">
         <v>175</v>
       </c>
-      <c r="C71" t="s">
-        <v>8</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D71">
-        <v>6172.9441477488899</v>
+        <v>6172.94414774889</v>
       </c>
       <c r="E71">
-        <v>161.04188048275299</v>
+        <v>161.041880482753</v>
       </c>
       <c r="F71">
-        <v>935.94955324761395</v>
+        <v>935.9495532476139</v>
       </c>
       <c r="G71">
-        <v>358678.66724502202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>358678.667245022</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72">
         <v>177</v>
       </c>
       <c r="B72">
         <v>177</v>
       </c>
-      <c r="C72" t="s">
-        <v>7</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D72">
         <v>13113.337087795</v>
@@ -2036,199 +2097,217 @@
         <v>150.797246911565</v>
       </c>
       <c r="F72">
-        <v>3260.9155961216402</v>
+        <v>3260.91559612164</v>
       </c>
       <c r="G72">
-        <v>1274244.4729236001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1274244.4729236</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73">
         <v>179</v>
       </c>
       <c r="B73">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>8</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D73">
-        <v>2248.0189768280302</v>
+        <v>2248.01897682803</v>
       </c>
       <c r="E73">
         <v>58.0229790977194</v>
       </c>
       <c r="F73">
-        <v>561.09817657455801</v>
+        <v>561.098176574558</v>
       </c>
       <c r="G73">
-        <v>2239634.6439660499</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2239634.64396605</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74">
         <v>180</v>
       </c>
       <c r="B74">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>8</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D74">
-        <v>3261.9958183574099</v>
+        <v>3261.99581835741</v>
       </c>
       <c r="E74">
-        <v>43.450625535352003</v>
+        <v>43.450625535352</v>
       </c>
       <c r="F74">
-        <v>570.28456310876504</v>
+        <v>570.284563108765</v>
       </c>
       <c r="G74">
-        <v>216795.70007284699</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216795.700072847</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75">
         <v>182</v>
       </c>
       <c r="B75">
         <v>182</v>
       </c>
-      <c r="C75" t="s">
-        <v>8</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D75">
-        <v>1715.5553951662901</v>
+        <v>1715.55539516629</v>
       </c>
       <c r="F75">
-        <v>466.36937359331102</v>
+        <v>466.369373593311</v>
       </c>
       <c r="G75">
-        <v>31241.954129692302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31241.9541296923</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76">
         <v>185</v>
       </c>
       <c r="B76">
         <v>185</v>
       </c>
-      <c r="C76" t="s">
-        <v>8</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D76">
-        <v>7340.0048893847897</v>
+        <v>7340.00488938479</v>
       </c>
       <c r="F76">
-        <v>18900.315809968099</v>
+        <v>18900.3158099681</v>
       </c>
       <c r="G76">
-        <v>764293.33611713198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>764293.336117132</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77">
         <v>189</v>
       </c>
       <c r="B77">
         <v>189</v>
       </c>
-      <c r="C77" t="s">
-        <v>7</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D77">
         <v>9439.08122601787</v>
       </c>
       <c r="E77">
-        <v>403.68488261537999</v>
+        <v>403.68488261538</v>
       </c>
       <c r="F77">
-        <v>288.69232823268902</v>
+        <v>288.692328232689</v>
       </c>
       <c r="G77">
         <v>904297.121844162</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78">
         <v>190</v>
       </c>
       <c r="B78">
         <v>190</v>
       </c>
-      <c r="C78" t="s">
-        <v>8</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D78">
-        <v>939.82323867065202</v>
+        <v>939.823238670652</v>
       </c>
       <c r="E78">
-        <v>13.466665560490901</v>
+        <v>13.4666655604909</v>
       </c>
       <c r="F78">
-        <v>19854.420775083901</v>
+        <v>19854.4207750839</v>
       </c>
       <c r="G78">
-        <v>68146.852315383294</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68146.85231538329</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79">
         <v>191</v>
       </c>
       <c r="B79">
         <v>191</v>
       </c>
-      <c r="C79" t="s">
-        <v>8</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D79">
-        <v>1444.9621421777199</v>
+        <v>1444.96214217772</v>
       </c>
       <c r="F79">
-        <v>253.43712443538701</v>
+        <v>253.437124435387</v>
       </c>
       <c r="G79">
-        <v>51453.967850053697</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51453.9678500537</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80">
         <v>192</v>
       </c>
       <c r="B80">
         <v>192</v>
       </c>
-      <c r="C80" t="s">
-        <v>7</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D80">
         <v>216.97717692933</v>
       </c>
       <c r="E80">
-        <v>15.892177867761299</v>
+        <v>15.8921778677613</v>
       </c>
       <c r="F80">
-        <v>275.80753190574598</v>
+        <v>275.807531905746</v>
       </c>
       <c r="G80">
-        <v>6016.8246731459903</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6016.82467314599</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81">
         <v>194</v>
       </c>
       <c r="B81">
         <v>194</v>
       </c>
-      <c r="C81" t="s">
-        <v>8</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D81">
-        <v>1767.4151533522299</v>
+        <v>1767.41515335223</v>
       </c>
       <c r="F81">
         <v>127.302753214007</v>
@@ -2237,110 +2316,120 @@
         <v>34575.6901338112</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82">
         <v>195</v>
       </c>
       <c r="B82">
         <v>195</v>
       </c>
-      <c r="C82" t="s">
-        <v>7</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D82">
-        <v>3861.5358774700198</v>
+        <v>3861.53587747002</v>
       </c>
       <c r="E82">
-        <v>35.280321971548197</v>
+        <v>35.2803219715482</v>
       </c>
       <c r="F82">
         <v>197.599264367757</v>
       </c>
       <c r="G82">
-        <v>64798.379316127102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64798.3793161271</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83">
         <v>196</v>
       </c>
       <c r="B83">
         <v>196</v>
       </c>
-      <c r="C83" t="s">
-        <v>7</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D83">
-        <v>17490.216919346702</v>
+        <v>17490.2169193467</v>
       </c>
       <c r="E83">
-        <v>42.660278127624501</v>
+        <v>42.6602781276245</v>
       </c>
       <c r="F83">
-        <v>806.47568813095404</v>
+        <v>806.475688130954</v>
       </c>
       <c r="G83">
         <v>177908.640912548</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84">
         <v>199</v>
       </c>
       <c r="B84">
         <v>199</v>
       </c>
-      <c r="C84" t="s">
-        <v>7</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D84">
-        <v>18872.495780372501</v>
+        <v>18872.4957803725</v>
       </c>
       <c r="E84">
-        <v>3000.4054153350899</v>
+        <v>3000.40541533509</v>
       </c>
       <c r="F84">
         <v>7520.99248291813</v>
       </c>
       <c r="G84">
-        <v>7619880.1875013597</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7619880.18750136</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85">
         <v>200</v>
       </c>
       <c r="B85">
         <v>200</v>
       </c>
-      <c r="C85" t="s">
-        <v>7</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D85">
-        <v>6734.3464992100098</v>
+        <v>6734.34649921001</v>
       </c>
       <c r="E85">
-        <v>699.41183188805098</v>
+        <v>699.411831888051</v>
       </c>
       <c r="F85">
         <v>1413.51992602631</v>
       </c>
       <c r="G85">
-        <v>1694990.6650845001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1694990.6650845</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86">
         <v>201</v>
       </c>
       <c r="B86">
         <v>201</v>
       </c>
-      <c r="C86" t="s">
-        <v>7</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D86">
-        <v>8380.9912297785995</v>
+        <v>8380.9912297786</v>
       </c>
       <c r="E86">
         <v>218.809673706382</v>
@@ -2352,124 +2441,136 @@
         <v>357196.782626245</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87">
         <v>202</v>
       </c>
       <c r="B87">
         <v>202</v>
       </c>
-      <c r="C87" t="s">
-        <v>8</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D87">
-        <v>637.24967882426199</v>
+        <v>637.249678824262</v>
       </c>
       <c r="F87">
-        <v>68.450340514266898</v>
+        <v>68.4503405142669</v>
       </c>
       <c r="G87">
-        <v>2759.8987250293899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2759.89872502939</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88">
         <v>205</v>
       </c>
       <c r="B88">
         <v>205</v>
       </c>
-      <c r="C88" t="s">
-        <v>7</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D88">
-        <v>7282.9072422875297</v>
+        <v>7282.90724228753</v>
       </c>
       <c r="E88">
-        <v>354.10487346973798</v>
+        <v>354.104873469738</v>
       </c>
       <c r="F88">
-        <v>1345.7410588611799</v>
+        <v>1345.74105886118</v>
       </c>
       <c r="G88">
-        <v>1148647.3151637199</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1148647.31516372</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89">
         <v>208</v>
       </c>
       <c r="B89">
         <v>208</v>
       </c>
-      <c r="C89" t="s">
-        <v>8</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D89">
-        <v>2920.2294081658201</v>
+        <v>2920.22940816582</v>
       </c>
       <c r="E89">
-        <v>17.633345271053301</v>
+        <v>17.6333452710533</v>
       </c>
       <c r="F89">
-        <v>383.74163432436501</v>
+        <v>383.741634324365</v>
       </c>
       <c r="G89">
         <v>58797.6258001674</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90">
         <v>209</v>
       </c>
       <c r="B90">
         <v>209</v>
       </c>
-      <c r="C90" t="s">
-        <v>8</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D90">
-        <v>3339.7005186177198</v>
+        <v>3339.70051861772</v>
       </c>
       <c r="E90">
-        <v>20.015700422225301</v>
+        <v>20.0157004222253</v>
       </c>
       <c r="F90">
-        <v>331.85285575355499</v>
+        <v>331.852855753555</v>
       </c>
       <c r="G90">
-        <v>544583.57186048105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544583.5718604811</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91">
         <v>211</v>
       </c>
       <c r="B91">
         <v>211</v>
       </c>
-      <c r="C91" t="s">
-        <v>7</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D91">
-        <v>755.91054259070904</v>
+        <v>755.910542590709</v>
       </c>
       <c r="F91">
-        <v>214.43567043037501</v>
+        <v>214.435670430375</v>
       </c>
       <c r="G91">
-        <v>179785.79291697999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179785.79291698</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92">
         <v>215</v>
       </c>
       <c r="B92">
         <v>215</v>
       </c>
-      <c r="C92" t="s">
-        <v>7</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D92">
         <v>12978.6289508548</v>
@@ -2478,61 +2579,67 @@
         <v>1186.7463731362</v>
       </c>
       <c r="G92">
-        <v>124750.38519406501</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124750.385194065</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93">
         <v>216</v>
       </c>
       <c r="B93">
         <v>216</v>
       </c>
-      <c r="C93" t="s">
-        <v>8</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D93">
-        <v>6841.3170217601601</v>
+        <v>6841.31702176016</v>
       </c>
       <c r="F93">
         <v>344.395067142534</v>
       </c>
       <c r="G93">
-        <v>162962.31836739901</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162962.318367399</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94">
         <v>217</v>
       </c>
       <c r="B94">
         <v>217</v>
       </c>
-      <c r="C94" t="s">
-        <v>7</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D94">
-        <v>7045.7827263925101</v>
+        <v>7045.78272639251</v>
       </c>
       <c r="E94">
-        <v>110.81196159488699</v>
+        <v>110.811961594887</v>
       </c>
       <c r="F94">
         <v>206.924350197861</v>
       </c>
       <c r="G94">
-        <v>233508.21878875699</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>233508.218788757</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95">
         <v>218</v>
       </c>
       <c r="B95">
         <v>218</v>
       </c>
-      <c r="C95" t="s">
-        <v>7</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D95">
         <v>4247.15762357938</v>
@@ -2541,93 +2648,101 @@
         <v>370.606392925173</v>
       </c>
       <c r="G95">
-        <v>24869.009957911101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24869.0099579111</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96">
         <v>219</v>
       </c>
       <c r="B96">
         <v>219</v>
       </c>
-      <c r="C96" t="s">
-        <v>8</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D96">
-        <v>3429.3364427282099</v>
+        <v>3429.33644272821</v>
       </c>
       <c r="E96">
-        <v>86.174055267859401</v>
+        <v>86.1740552678594</v>
       </c>
       <c r="F96">
-        <v>2171.7085901548398</v>
+        <v>2171.70859015484</v>
       </c>
       <c r="G96">
         <v>137253.931962951</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97">
         <v>221</v>
       </c>
       <c r="B97">
         <v>221</v>
       </c>
-      <c r="C97" t="s">
-        <v>7</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D97">
         <v>10160.9822004331</v>
       </c>
       <c r="E97">
-        <v>6124.5706093215804</v>
+        <v>6124.57060932158</v>
       </c>
       <c r="F97">
-        <v>814.82696399483495</v>
+        <v>814.826963994835</v>
       </c>
       <c r="G97">
         <v>251997.648193884</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98">
         <v>223</v>
       </c>
       <c r="B98">
         <v>223</v>
       </c>
-      <c r="C98" t="s">
-        <v>7</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D98">
         <v>3243.19107304422</v>
       </c>
       <c r="E98">
-        <v>5832.4487141191203</v>
+        <v>5832.44871411912</v>
       </c>
       <c r="F98">
-        <v>230.74141987209401</v>
+        <v>230.741419872094</v>
       </c>
       <c r="G98">
-        <v>164434.59672417099</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164434.596724171</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99">
         <v>228</v>
       </c>
       <c r="B99">
         <v>228</v>
       </c>
-      <c r="C99" t="s">
-        <v>7</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D99">
-        <v>2558.6164855033899</v>
+        <v>2558.61648550339</v>
       </c>
       <c r="E99">
-        <v>5368.2688782099704</v>
+        <v>5368.26887820997</v>
       </c>
       <c r="F99">
         <v>123.141128165814</v>
@@ -2636,110 +2751,120 @@
         <v>19876.3290366324</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100">
         <v>229</v>
       </c>
       <c r="B100">
         <v>229</v>
       </c>
-      <c r="C100" t="s">
-        <v>7</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D100">
-        <v>719.47293642624402</v>
+        <v>719.472936426244</v>
       </c>
       <c r="E100">
-        <v>5221.4029221197698</v>
+        <v>5221.40292211977</v>
       </c>
       <c r="F100">
-        <v>3044.3105598923498</v>
+        <v>3044.31055989235</v>
       </c>
       <c r="G100">
-        <v>11662.756555354899</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11662.7565553549</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101">
         <v>230</v>
       </c>
       <c r="B101">
         <v>230</v>
       </c>
-      <c r="C101" t="s">
-        <v>7</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D101">
-        <v>1387.4139099163101</v>
+        <v>1387.41390991631</v>
       </c>
       <c r="E101">
-        <v>5294.8174065132398</v>
+        <v>5294.81740651324</v>
       </c>
       <c r="F101">
-        <v>936.02704769142497</v>
+        <v>936.027047691425</v>
       </c>
       <c r="G101">
         <v>35316.96424257</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102">
         <v>232</v>
       </c>
       <c r="B102">
         <v>232</v>
       </c>
-      <c r="C102" t="s">
-        <v>8</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D102">
-        <v>3872.0906063992602</v>
+        <v>3872.09060639926</v>
       </c>
       <c r="E102">
-        <v>5245.8955896167699</v>
+        <v>5245.89558961677</v>
       </c>
       <c r="F102">
-        <v>618.46891338009596</v>
+        <v>618.468913380096</v>
       </c>
       <c r="G102">
-        <v>69236.584548966101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69236.5845489661</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103">
         <v>233</v>
       </c>
       <c r="B103">
         <v>233</v>
       </c>
-      <c r="C103" t="s">
-        <v>7</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D103">
-        <v>5769.1400980578101</v>
+        <v>5769.14009805781</v>
       </c>
       <c r="E103">
-        <v>5783.5159182321704</v>
+        <v>5783.51591823217</v>
       </c>
       <c r="F103">
-        <v>583.87081291108905</v>
+        <v>583.870812911089</v>
       </c>
       <c r="G103">
-        <v>33419.192090078701</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33419.1920900787</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104">
         <v>234</v>
       </c>
       <c r="B104">
         <v>234</v>
       </c>
-      <c r="C104" t="s">
-        <v>7</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D104">
-        <v>2382.5497747836598</v>
+        <v>2382.54977478366</v>
       </c>
       <c r="E104">
         <v>6197.64055905858</v>
@@ -2748,136 +2873,148 @@
         <v>1669.53132369331</v>
       </c>
       <c r="G104">
-        <v>22586.222855468099</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22586.2228554681</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105">
         <v>235</v>
       </c>
       <c r="B105">
         <v>235</v>
       </c>
-      <c r="C105" t="s">
-        <v>7</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D105">
-        <v>5524.1930429243102</v>
+        <v>5524.19304292431</v>
       </c>
       <c r="E105">
         <v>22.2649045372575</v>
       </c>
       <c r="F105">
-        <v>973.49275866880703</v>
+        <v>973.492758668807</v>
       </c>
       <c r="G105">
-        <v>400855.41661929298</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>400855.416619293</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106">
         <v>239</v>
       </c>
       <c r="B106">
         <v>239</v>
       </c>
-      <c r="C106" t="s">
-        <v>7</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D106">
-        <v>4218.6665192913397</v>
+        <v>4218.66651929134</v>
       </c>
       <c r="E106">
         <v>25.3632716111278</v>
       </c>
       <c r="F106">
-        <v>195.80179963443101</v>
+        <v>195.801799634431</v>
       </c>
       <c r="G106">
-        <v>92685.488974063905</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>92685.4889740639</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107">
         <v>240</v>
       </c>
       <c r="B107">
         <v>240</v>
       </c>
-      <c r="C107" t="s">
-        <v>7</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D107">
-        <v>19897.538894034202</v>
+        <v>19897.5388940342</v>
       </c>
       <c r="E107">
         <v>1987.50614438057</v>
       </c>
       <c r="F107">
-        <v>3030.2210514970802</v>
+        <v>3030.22105149708</v>
       </c>
       <c r="G107">
         <v>16332182.9652864</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108">
         <v>241</v>
       </c>
       <c r="B108">
         <v>241</v>
       </c>
-      <c r="C108" t="s">
-        <v>7</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D108">
         <v>2763.67906761624</v>
       </c>
       <c r="F108">
-        <v>272.16289546221401</v>
+        <v>272.162895462214</v>
       </c>
       <c r="G108">
         <v>53837.3611319177</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109">
         <v>243</v>
       </c>
       <c r="B109">
         <v>243</v>
       </c>
-      <c r="C109" t="s">
-        <v>7</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D109">
-        <v>4264.3835217935502</v>
+        <v>4264.38352179355</v>
       </c>
       <c r="E109">
-        <v>5.7087447808129603</v>
+        <v>5.70874478081296</v>
       </c>
       <c r="F109">
-        <v>898.12224142115099</v>
+        <v>898.122241421151</v>
       </c>
       <c r="G109">
-        <v>95294.072553038903</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95294.0725530389</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110">
         <v>245</v>
       </c>
       <c r="B110">
         <v>245</v>
       </c>
-      <c r="C110" t="s">
-        <v>7</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D110">
-        <v>9449.3735841657399</v>
+        <v>9449.37358416574</v>
       </c>
       <c r="E110">
-        <v>220.67781711351299</v>
+        <v>220.677817113513</v>
       </c>
       <c r="F110">
         <v>1023.07613159912</v>
@@ -2886,38 +3023,42 @@
         <v>3335210.78782199</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111">
         <v>246</v>
       </c>
       <c r="B111">
         <v>246</v>
       </c>
-      <c r="C111" t="s">
-        <v>7</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D111">
-        <v>4207.2052622245001</v>
+        <v>4207.2052622245</v>
       </c>
       <c r="E111">
         <v>18.3254444312158</v>
       </c>
       <c r="F111">
-        <v>603.02130034079505</v>
+        <v>603.0213003407951</v>
       </c>
       <c r="G111">
         <v>101087.245401561</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112">
         <v>249</v>
       </c>
       <c r="B112">
         <v>249</v>
       </c>
-      <c r="C112" t="s">
-        <v>7</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D112">
         <v>6365.37324928628</v>
@@ -2929,423 +3070,461 @@
         <v>529.120192702542</v>
       </c>
       <c r="G112">
-        <v>347058.47215787298</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>347058.472157873</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113">
         <v>251</v>
       </c>
       <c r="B113">
         <v>251</v>
       </c>
-      <c r="C113" t="s">
-        <v>7</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D113">
-        <v>3695.8155031838601</v>
+        <v>3695.81550318386</v>
       </c>
       <c r="F113">
-        <v>709.68741525959194</v>
+        <v>709.6874152595919</v>
       </c>
       <c r="G113">
-        <v>76169.048456521996</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76169.048456522</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114">
         <v>254</v>
       </c>
       <c r="B114">
         <v>254</v>
       </c>
-      <c r="C114" t="s">
-        <v>7</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D114">
-        <v>6236.1400534888398</v>
+        <v>6236.14005348884</v>
       </c>
       <c r="E114">
         <v>66.3895609541824</v>
       </c>
       <c r="F114">
-        <v>120.62804207460201</v>
+        <v>120.628042074602</v>
       </c>
       <c r="G114">
         <v>125991.80953519</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115">
         <v>255</v>
       </c>
       <c r="B115">
         <v>255</v>
       </c>
-      <c r="C115" t="s">
-        <v>7</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D115">
-        <v>2550.6260044022001</v>
+        <v>2550.6260044022</v>
       </c>
       <c r="E115">
-        <v>22.276663717969701</v>
+        <v>22.2766637179697</v>
       </c>
       <c r="F115">
-        <v>448.49926561247503</v>
+        <v>448.499265612475</v>
       </c>
       <c r="G115">
-        <v>39640.594109577898</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39640.5941095779</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116">
         <v>258</v>
       </c>
       <c r="B116">
         <v>258</v>
       </c>
-      <c r="C116" t="s">
-        <v>7</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D116">
         <v>12551.4212099501</v>
       </c>
       <c r="E116">
-        <v>148.92742067990099</v>
+        <v>148.927420679901</v>
       </c>
       <c r="F116">
-        <v>23.659357983504801</v>
+        <v>23.6593579835048</v>
       </c>
       <c r="G116">
-        <v>282246.23790754902</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282246.237907549</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117">
         <v>262</v>
       </c>
       <c r="B117">
         <v>262</v>
       </c>
-      <c r="C117" t="s">
-        <v>7</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D117">
-        <v>1436.3754431095001</v>
+        <v>1436.3754431095</v>
       </c>
       <c r="F117">
-        <v>191.61442280514501</v>
+        <v>191.614422805145</v>
       </c>
       <c r="G117">
-        <v>71709.639372138001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71709.639372138</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118">
         <v>263</v>
       </c>
       <c r="B118">
         <v>263</v>
       </c>
-      <c r="C118" t="s">
-        <v>7</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D118">
-        <v>7813.5802534512004</v>
+        <v>7813.5802534512</v>
       </c>
       <c r="E118">
-        <v>48.046465300777498</v>
+        <v>48.0464653007775</v>
       </c>
       <c r="F118">
         <v>147.718810114815</v>
       </c>
       <c r="G118">
-        <v>126074.28672259299</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126074.286722593</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119">
         <v>264</v>
       </c>
       <c r="B119">
         <v>264</v>
       </c>
-      <c r="C119" t="s">
-        <v>7</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D119">
-        <v>4217.3466669137897</v>
+        <v>4217.34666691379</v>
       </c>
       <c r="E119">
-        <v>93.009332427352007</v>
+        <v>93.00933242735201</v>
       </c>
       <c r="F119">
-        <v>232.78898322529801</v>
+        <v>232.788983225298</v>
       </c>
       <c r="G119">
         <v>122295.149293665</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120">
         <v>265</v>
       </c>
       <c r="B120">
         <v>265</v>
       </c>
-      <c r="C120" t="s">
-        <v>7</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D120">
-        <v>17253.821661847502</v>
+        <v>17253.8216618475</v>
       </c>
       <c r="E120">
-        <v>1171.9231469228901</v>
+        <v>1171.92314692289</v>
       </c>
       <c r="F120">
-        <v>816.18860020498403</v>
+        <v>816.188600204984</v>
       </c>
       <c r="G120">
-        <v>12466776.228088601</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12466776.2280886</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121">
         <v>268</v>
       </c>
       <c r="B121">
         <v>268</v>
       </c>
-      <c r="C121" t="s">
-        <v>7</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D121">
-        <v>5219.8499812340997</v>
+        <v>5219.8499812341</v>
       </c>
       <c r="E121">
-        <v>369.36856089650098</v>
+        <v>369.368560896501</v>
       </c>
       <c r="F121">
-        <v>247.50349278277699</v>
+        <v>247.503492782777</v>
       </c>
       <c r="G121">
         <v>291632.623026043</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122">
         <v>269</v>
       </c>
       <c r="B122">
         <v>269</v>
       </c>
-      <c r="C122" t="s">
-        <v>7</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D122">
-        <v>7938.6234526793896</v>
+        <v>7938.62345267939</v>
       </c>
       <c r="E122">
-        <v>83.821996000574998</v>
+        <v>83.821996000575</v>
       </c>
       <c r="F122">
-        <v>1593.2868849594199</v>
+        <v>1593.28688495942</v>
       </c>
       <c r="G122">
-        <v>63950.834489137698</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63950.8344891377</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123">
         <v>270</v>
       </c>
       <c r="B123">
         <v>270</v>
       </c>
-      <c r="C123" t="s">
-        <v>7</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D123">
         <v>10040.5627423512</v>
       </c>
       <c r="E123">
-        <v>8.6544833059899506</v>
+        <v>8.654483305989951</v>
       </c>
       <c r="F123">
-        <v>886.37944023479997</v>
+        <v>886.3794402348</v>
       </c>
       <c r="G123">
-        <v>477264.92610499501</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>477264.926104995</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124">
         <v>272</v>
       </c>
       <c r="B124">
         <v>272</v>
       </c>
-      <c r="C124" t="s">
-        <v>7</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D124">
         <v>3105.2055260058</v>
       </c>
       <c r="F124">
-        <v>488.70161437327903</v>
+        <v>488.701614373279</v>
       </c>
       <c r="G124">
         <v>1060866.55537797</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125">
         <v>278</v>
       </c>
       <c r="B125">
         <v>278</v>
       </c>
-      <c r="C125" t="s">
-        <v>7</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D125">
-        <v>19727.926374453498</v>
+        <v>19727.9263744535</v>
       </c>
       <c r="E125">
-        <v>6052.1145976075904</v>
+        <v>6052.11459760759</v>
       </c>
       <c r="F125">
-        <v>790.73353994958404</v>
+        <v>790.733539949584</v>
       </c>
       <c r="G125">
-        <v>19053916.266303901</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19053916.2663039</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126">
         <v>279</v>
       </c>
       <c r="B126">
         <v>279</v>
       </c>
-      <c r="C126" t="s">
-        <v>7</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D126">
-        <v>5647.5610315845297</v>
+        <v>5647.56103158453</v>
       </c>
       <c r="F126">
-        <v>308.03803626608698</v>
+        <v>308.038036266087</v>
       </c>
       <c r="G126">
-        <v>220217.00429876399</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220217.004298764</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127">
         <v>280</v>
       </c>
       <c r="B127">
         <v>280</v>
       </c>
-      <c r="C127" t="s">
-        <v>7</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D127">
-        <v>5609.1268889632001</v>
+        <v>5609.1268889632</v>
       </c>
       <c r="E127">
-        <v>83.016996099510294</v>
+        <v>83.01699609951029</v>
       </c>
       <c r="F127">
-        <v>71.545907126351906</v>
+        <v>71.54590712635191</v>
       </c>
       <c r="G127">
-        <v>66391.162149683907</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66391.16214968391</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128">
         <v>289</v>
       </c>
       <c r="B128">
         <v>289</v>
       </c>
-      <c r="C128" t="s">
-        <v>7</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D128">
-        <v>26192.542499024701</v>
+        <v>26192.5424990247</v>
       </c>
       <c r="E128">
-        <v>1128.0488050562601</v>
+        <v>1128.04880505626</v>
       </c>
       <c r="F128">
-        <v>2393.1588424786501</v>
+        <v>2393.15884247865</v>
       </c>
       <c r="G128">
-        <v>6031534.9296442103</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6031534.92964421</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129">
         <v>294</v>
       </c>
       <c r="B129">
         <v>294</v>
       </c>
-      <c r="C129" t="s">
-        <v>8</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D129">
-        <v>17259.218293817401</v>
+        <v>17259.2182938174</v>
       </c>
       <c r="E129">
-        <v>356.23711591353498</v>
+        <v>356.237115913535</v>
       </c>
       <c r="F129">
-        <v>781.82078424941903</v>
+        <v>781.820784249419</v>
       </c>
       <c r="G129">
-        <v>431120.35639033897</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>431120.356390339</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130">
         <v>295</v>
       </c>
       <c r="B130">
         <v>295</v>
       </c>
-      <c r="C130" t="s">
-        <v>7</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D130">
-        <v>1833.1978809116799</v>
+        <v>1833.19788091168</v>
       </c>
       <c r="E130">
-        <v>24.512504633638201</v>
+        <v>24.5125046336382</v>
       </c>
       <c r="F130">
-        <v>470.48033568700401</v>
+        <v>470.480335687004</v>
       </c>
       <c r="G130">
         <v>32084.9501832725</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131">
         <v>299</v>
       </c>
       <c r="B131">
         <v>299</v>
       </c>
-      <c r="C131" t="s">
-        <v>7</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D131">
-        <v>6417.7643500473696</v>
+        <v>6417.76435004737</v>
       </c>
       <c r="E131">
         <v>24.6028820796144</v>
@@ -3357,107 +3536,117 @@
         <v>122650.873531064</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132">
         <v>300</v>
       </c>
       <c r="B132">
         <v>300</v>
       </c>
-      <c r="C132" t="s">
-        <v>7</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D132">
-        <v>17650.794202805901</v>
+        <v>17650.7942028059</v>
       </c>
       <c r="E132">
-        <v>397.42341499615497</v>
+        <v>397.423414996155</v>
       </c>
       <c r="F132">
         <v>3253.54376966879</v>
       </c>
       <c r="G132">
-        <v>620422.65967772005</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>620422.65967772</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133">
         <v>301</v>
       </c>
       <c r="B133">
         <v>301</v>
       </c>
-      <c r="C133" t="s">
-        <v>7</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D133">
         <v>10936.3588973076</v>
       </c>
       <c r="E133">
-        <v>126.33666714122199</v>
+        <v>126.336667141222</v>
       </c>
       <c r="F133">
-        <v>601.82612746264704</v>
+        <v>601.826127462647</v>
       </c>
       <c r="G133">
-        <v>2513267.5327213202</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2513267.53272132</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134">
         <v>303</v>
       </c>
       <c r="B134">
         <v>303</v>
       </c>
-      <c r="C134" t="s">
-        <v>7</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D134">
         <v>16277.6332133327</v>
       </c>
       <c r="E134">
-        <v>2708.5851849522301</v>
+        <v>2708.58518495223</v>
       </c>
       <c r="F134">
-        <v>3303.8167411805998</v>
+        <v>3303.8167411806</v>
       </c>
       <c r="G134">
         <v>546662.676384566</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135">
         <v>304</v>
       </c>
       <c r="B135">
         <v>304</v>
       </c>
-      <c r="C135" t="s">
-        <v>7</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D135">
-        <v>16681.303318897899</v>
+        <v>16681.3033188979</v>
       </c>
       <c r="E135">
         <v>1000.45399416309</v>
       </c>
       <c r="F135">
-        <v>658.08111363343505</v>
+        <v>658.0811136334351</v>
       </c>
       <c r="G135">
         <v>220707.95271461</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136">
         <v>305</v>
       </c>
       <c r="B136">
         <v>305</v>
       </c>
-      <c r="C136" t="s">
-        <v>7</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D136">
         <v>7663.67599345484</v>
@@ -3466,44 +3655,48 @@
         <v>110.018048005065</v>
       </c>
       <c r="F136">
-        <v>224.65880855005301</v>
+        <v>224.658808550053</v>
       </c>
       <c r="G136">
-        <v>39362.771345793197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39362.7713457932</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137">
         <v>309</v>
       </c>
       <c r="B137">
         <v>309</v>
       </c>
-      <c r="C137" t="s">
-        <v>8</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D137">
         <v>1299.92945929489</v>
       </c>
       <c r="E137">
-        <v>6246.2133202147998</v>
+        <v>6246.2133202148</v>
       </c>
       <c r="F137">
-        <v>458.34700341303801</v>
+        <v>458.347003413038</v>
       </c>
       <c r="G137">
         <v>12937.1498953679</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138">
         <v>312</v>
       </c>
       <c r="B138">
         <v>312</v>
       </c>
-      <c r="C138" t="s">
-        <v>7</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D138">
         <v>5187.10242607288</v>
@@ -3512,780 +3705,848 @@
         <v>6562.32607081066</v>
       </c>
       <c r="F138">
-        <v>2295.3845150125399</v>
+        <v>2295.38451501254</v>
       </c>
       <c r="G138">
-        <v>268982.71051769902</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>268982.710517699</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139">
         <v>314</v>
       </c>
       <c r="B139">
         <v>314</v>
       </c>
-      <c r="C139" t="s">
-        <v>7</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D139">
-        <v>268.40449015321502</v>
+        <v>268.404490153215</v>
       </c>
       <c r="E139">
-        <v>5856.7848612269099</v>
+        <v>5856.78486122691</v>
       </c>
       <c r="F139">
-        <v>882.23771992292905</v>
+        <v>882.237719922929</v>
       </c>
       <c r="G139">
-        <v>21052.713134240599</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21052.7131342406</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140">
         <v>316</v>
       </c>
       <c r="B140">
         <v>316</v>
       </c>
-      <c r="C140" t="s">
-        <v>7</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D140">
-        <v>6822.0163216442497</v>
+        <v>6822.01632164425</v>
       </c>
       <c r="E140">
-        <v>6100.5024950142597</v>
+        <v>6100.50249501426</v>
       </c>
       <c r="F140">
-        <v>572.29733982714095</v>
+        <v>572.2973398271409</v>
       </c>
       <c r="G140">
         <v>178885.530687789</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141">
         <v>317</v>
       </c>
       <c r="B141">
         <v>317</v>
       </c>
-      <c r="C141" t="s">
-        <v>7</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D141">
-        <v>7399.8765316796098</v>
+        <v>7399.87653167961</v>
       </c>
       <c r="E141">
         <v>11013.661108663</v>
       </c>
       <c r="F141">
-        <v>139.75014415270701</v>
+        <v>139.750144152707</v>
       </c>
       <c r="G141">
         <v>145210.897757228</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142">
         <v>318</v>
       </c>
       <c r="B142">
         <v>318</v>
       </c>
-      <c r="C142" t="s">
-        <v>7</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D142">
-        <v>3006.8192585940401</v>
+        <v>3006.81925859404</v>
       </c>
       <c r="E142">
-        <v>5808.0737185418202</v>
+        <v>5808.07371854182</v>
       </c>
       <c r="F142">
-        <v>312.94729183180402</v>
+        <v>312.947291831804</v>
       </c>
       <c r="G142">
         <v>30162.9267036692</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143">
         <v>321</v>
       </c>
       <c r="B143">
         <v>321</v>
       </c>
-      <c r="C143" t="s">
-        <v>7</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D143">
-        <v>3127.4148789876299</v>
+        <v>3127.41487898763</v>
       </c>
       <c r="E143">
-        <v>8447.8359732791705</v>
+        <v>8447.835973279171</v>
       </c>
       <c r="F143">
-        <v>60.061644088063503</v>
+        <v>60.0616440880635</v>
       </c>
       <c r="G143">
         <v>1534723.03819618</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144">
         <v>322</v>
       </c>
       <c r="B144">
         <v>322</v>
       </c>
-      <c r="C144" t="s">
-        <v>7</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D144">
-        <v>9888.3312967492802</v>
+        <v>9888.33129674928</v>
       </c>
       <c r="E144">
         <v>452.414046673428</v>
       </c>
       <c r="F144">
-        <v>2545.3056679216602</v>
+        <v>2545.30566792166</v>
       </c>
       <c r="G144">
-        <v>577420.01365595905</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>577420.013655959</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145">
         <v>331</v>
       </c>
       <c r="B145">
         <v>331</v>
       </c>
-      <c r="C145" t="s">
-        <v>7</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D145">
-        <v>3024.6583242492602</v>
+        <v>3024.65832424926</v>
       </c>
       <c r="E145">
-        <v>50.554274087160003</v>
+        <v>50.55427408716</v>
       </c>
       <c r="F145">
-        <v>746.93210758323403</v>
+        <v>746.932107583234</v>
       </c>
       <c r="G145">
-        <v>460806.82194590999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>460806.82194591</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146">
         <v>332</v>
       </c>
       <c r="B146">
         <v>332</v>
       </c>
-      <c r="C146" t="s">
-        <v>7</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D146">
-        <v>9991.2812982544692</v>
+        <v>9991.281298254469</v>
       </c>
       <c r="E146">
-        <v>19.157074054725701</v>
+        <v>19.1570740547257</v>
       </c>
       <c r="F146">
-        <v>265.35222971129599</v>
+        <v>265.352229711296</v>
       </c>
       <c r="G146">
-        <v>32977.420996416397</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32977.4209964164</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147">
         <v>333</v>
       </c>
       <c r="B147">
         <v>333</v>
       </c>
-      <c r="C147" t="s">
-        <v>8</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D147">
-        <v>729.53245139208104</v>
+        <v>729.532451392081</v>
       </c>
       <c r="F147">
-        <v>171.41444019792101</v>
+        <v>171.414440197921</v>
       </c>
       <c r="G147">
-        <v>673687.34773840103</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673687.347738401</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148">
         <v>335</v>
       </c>
       <c r="B148">
         <v>335</v>
       </c>
-      <c r="C148" t="s">
-        <v>7</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D148">
-        <v>3436.8492415926798</v>
+        <v>3436.84924159268</v>
       </c>
       <c r="E148">
-        <v>365.00401656241701</v>
+        <v>365.004016562417</v>
       </c>
       <c r="F148">
-        <v>402.92631565987398</v>
+        <v>402.926315659874</v>
       </c>
       <c r="G148">
-        <v>1033181.2234251701</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1033181.22342517</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="A149">
         <v>340</v>
       </c>
       <c r="B149">
         <v>340</v>
       </c>
-      <c r="C149" t="s">
-        <v>7</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D149">
-        <v>11369.614107933799</v>
+        <v>11369.6141079338</v>
       </c>
       <c r="E149">
-        <v>535.83483818525497</v>
+        <v>535.834838185255</v>
       </c>
       <c r="F149">
-        <v>365.91852728920799</v>
+        <v>365.918527289208</v>
       </c>
       <c r="G149">
         <v>736501.998265918</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150">
         <v>341</v>
       </c>
       <c r="B150">
         <v>341</v>
       </c>
-      <c r="C150" t="s">
-        <v>7</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D150">
-        <v>5331.1748519367602</v>
+        <v>5331.17485193676</v>
       </c>
       <c r="E150">
-        <v>22.196481655998198</v>
+        <v>22.1964816559982</v>
       </c>
       <c r="F150">
-        <v>861.87201107241697</v>
+        <v>861.872011072417</v>
       </c>
       <c r="G150">
-        <v>73987.012789883302</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73987.0127898833</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151">
         <v>342</v>
       </c>
       <c r="B151">
         <v>342</v>
       </c>
-      <c r="C151" t="s">
-        <v>7</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D151">
-        <v>6273.8487555408701</v>
+        <v>6273.84875554087</v>
       </c>
       <c r="E151">
-        <v>79.417213660209796</v>
+        <v>79.4172136602098</v>
       </c>
       <c r="F151">
         <v>87.9274968309294</v>
       </c>
       <c r="G151">
-        <v>52041.227030182599</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52041.2270301826</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152">
         <v>343</v>
       </c>
       <c r="B152">
         <v>343</v>
       </c>
-      <c r="C152" t="s">
-        <v>7</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D152">
         <v>12350.9208913985</v>
       </c>
       <c r="E152">
-        <v>535.59785576300499</v>
+        <v>535.597855763005</v>
       </c>
       <c r="F152">
-        <v>746.43684989212204</v>
+        <v>746.436849892122</v>
       </c>
       <c r="G152">
-        <v>953880.02672889398</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>953880.026728894</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153">
         <v>345</v>
       </c>
       <c r="B153">
         <v>345</v>
       </c>
-      <c r="C153" t="s">
-        <v>7</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D153">
-        <v>3312.8345883438001</v>
+        <v>3312.8345883438</v>
       </c>
       <c r="E153">
-        <v>89.994824969843606</v>
+        <v>89.99482496984361</v>
       </c>
       <c r="F153">
-        <v>37.029672737872097</v>
+        <v>37.0296727378721</v>
       </c>
       <c r="G153">
-        <v>35637.763829126001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35637.763829126</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154">
         <v>346</v>
       </c>
       <c r="B154">
         <v>346</v>
       </c>
-      <c r="C154" t="s">
-        <v>7</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D154">
-        <v>4773.4230598570703</v>
+        <v>4773.42305985707</v>
       </c>
       <c r="E154">
-        <v>48.058849688937997</v>
+        <v>48.058849688938</v>
       </c>
       <c r="F154">
-        <v>622.50946140888595</v>
+        <v>622.509461408886</v>
       </c>
       <c r="G154">
         <v>42710.3284644585</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155">
         <v>347</v>
       </c>
       <c r="B155">
         <v>347</v>
       </c>
-      <c r="C155" t="s">
-        <v>7</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D155">
-        <v>4288.9784095179102</v>
+        <v>4288.97840951791</v>
       </c>
       <c r="E155">
-        <v>27.767674980280098</v>
+        <v>27.7676749802801</v>
       </c>
       <c r="F155">
-        <v>4589.3098508388102</v>
+        <v>4589.30985083881</v>
       </c>
       <c r="G155">
         <v>152914.712641177</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156">
         <v>352</v>
       </c>
       <c r="B156">
         <v>352</v>
       </c>
-      <c r="C156" t="s">
-        <v>7</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D156">
-        <v>8269.9299500548004</v>
+        <v>8269.9299500548</v>
       </c>
       <c r="E156">
-        <v>33.324759299192998</v>
+        <v>33.324759299193</v>
       </c>
       <c r="F156">
-        <v>294.55935509746502</v>
+        <v>294.559355097465</v>
       </c>
       <c r="G156">
-        <v>49931.347247119702</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49931.3472471197</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157">
         <v>357</v>
       </c>
       <c r="B157">
         <v>357</v>
       </c>
-      <c r="C157" t="s">
-        <v>7</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D157">
-        <v>1261.9351900694401</v>
+        <v>1261.93519006944</v>
       </c>
       <c r="E157">
-        <v>18.290923761815101</v>
+        <v>18.2909237618151</v>
       </c>
       <c r="F157">
-        <v>4091.1779162446101</v>
+        <v>4091.17791624461</v>
       </c>
       <c r="G157">
         <v>12146.1869371669</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158">
         <v>358</v>
       </c>
       <c r="B158">
         <v>358</v>
       </c>
-      <c r="C158" t="s">
-        <v>7</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D158">
-        <v>1006.6838004226501</v>
+        <v>1006.68380042265</v>
       </c>
       <c r="E158">
-        <v>50.167147532019897</v>
+        <v>50.1671475320199</v>
       </c>
       <c r="F158">
         <v>51.1</v>
       </c>
       <c r="G158">
-        <v>8894.9804303385499</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8894.98043033855</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159">
         <v>360</v>
       </c>
       <c r="B159">
         <v>360</v>
       </c>
-      <c r="C159" t="s">
-        <v>8</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D159">
-        <v>9269.6931257524993</v>
+        <v>9269.693125752499</v>
       </c>
       <c r="E159">
         <v>218.084268533368</v>
       </c>
       <c r="F159">
-        <v>518.31191527241901</v>
+        <v>518.311915272419</v>
       </c>
       <c r="G159">
-        <v>471576.79538751399</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>471576.795387514</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160">
         <v>363</v>
       </c>
       <c r="B160">
         <v>363</v>
       </c>
-      <c r="C160" t="s">
-        <v>7</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D160">
-        <v>8741.8585250037795</v>
+        <v>8741.85852500378</v>
       </c>
       <c r="E160">
-        <v>11.423055776791299</v>
+        <v>11.4230557767913</v>
       </c>
       <c r="F160">
-        <v>2729.1540872640298</v>
+        <v>2729.15408726403</v>
       </c>
       <c r="G160">
-        <v>438721.06654340698</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>438721.066543407</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161">
         <v>365</v>
       </c>
       <c r="B161">
         <v>365</v>
       </c>
-      <c r="C161" t="s">
-        <v>7</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D161">
-        <v>2775.8665750549299</v>
+        <v>2775.86657505493</v>
       </c>
       <c r="E161">
-        <v>32.856679014994803</v>
+        <v>32.8566790149948</v>
       </c>
       <c r="F161">
-        <v>300.00174746539699</v>
+        <v>300.001747465397</v>
       </c>
       <c r="G161">
-        <v>74149.601634452294</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74149.60163445229</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162">
         <v>366</v>
       </c>
       <c r="B162">
         <v>366</v>
       </c>
-      <c r="C162" t="s">
-        <v>7</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D162">
-        <v>13424.712288777901</v>
+        <v>13424.7122887779</v>
       </c>
       <c r="E162">
-        <v>226.32036401152001</v>
+        <v>226.32036401152</v>
       </c>
       <c r="F162">
-        <v>781.96266277089705</v>
+        <v>781.9626627708971</v>
       </c>
       <c r="G162">
         <v>124379.461306995</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163">
         <v>368</v>
       </c>
       <c r="B163">
         <v>368</v>
       </c>
-      <c r="C163" t="s">
-        <v>7</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D163">
-        <v>17039.536263693601</v>
+        <v>17039.5362636936</v>
       </c>
       <c r="E163">
         <v>487.948587801786</v>
       </c>
       <c r="F163">
-        <v>7142.6502798237298</v>
+        <v>7142.65027982373</v>
       </c>
       <c r="G163">
         <v>539796.338896345</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164">
         <v>371</v>
       </c>
       <c r="B164">
         <v>371</v>
       </c>
-      <c r="C164" t="s">
-        <v>7</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D164">
-        <v>9818.6555137179694</v>
+        <v>9818.655513717969</v>
       </c>
       <c r="E164">
-        <v>159.08245361022799</v>
+        <v>159.082453610228</v>
       </c>
       <c r="F164">
-        <v>341.54996312228798</v>
+        <v>341.549963122288</v>
       </c>
       <c r="G164">
         <v>130271.924725287</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165">
         <v>372</v>
       </c>
       <c r="B165">
         <v>372</v>
       </c>
-      <c r="C165" t="s">
-        <v>7</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D165">
-        <v>3395.4215125126002</v>
+        <v>3395.4215125126</v>
       </c>
       <c r="E165">
-        <v>32.319185594690303</v>
+        <v>32.3191855946903</v>
       </c>
       <c r="F165">
-        <v>266.14053623256598</v>
+        <v>266.140536232566</v>
       </c>
       <c r="G165">
-        <v>65689.304933891501</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65689.3049338915</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="A166">
         <v>373</v>
       </c>
       <c r="B166">
         <v>373</v>
       </c>
-      <c r="C166" t="s">
-        <v>7</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D166">
-        <v>3903.7913403552302</v>
+        <v>3903.79134035523</v>
       </c>
       <c r="E166">
-        <v>379.56810930924797</v>
+        <v>379.568109309248</v>
       </c>
       <c r="F166">
-        <v>284.60539708203402</v>
+        <v>284.605397082034</v>
       </c>
       <c r="G166">
-        <v>1432626.0568578599</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1432626.05685786</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167">
         <v>374</v>
       </c>
       <c r="B167">
         <v>374</v>
       </c>
-      <c r="C167" t="s">
-        <v>7</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D167">
-        <v>397.77360719924201</v>
+        <v>397.773607199242</v>
       </c>
       <c r="F167">
-        <v>64.432035338139698</v>
+        <v>64.4320353381397</v>
       </c>
       <c r="G167">
-        <v>15320.844608638299</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15320.8446086383</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168">
         <v>375</v>
       </c>
       <c r="B168">
         <v>375</v>
       </c>
-      <c r="C168" t="s">
-        <v>7</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D168">
-        <v>1742.9445159996301</v>
+        <v>1742.94451599963</v>
       </c>
       <c r="E168">
-        <v>20.080622387805398</v>
+        <v>20.0806223878054</v>
       </c>
       <c r="F168">
-        <v>284.06720017912198</v>
+        <v>284.067200179122</v>
       </c>
       <c r="G168">
-        <v>26249.688527051301</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26249.6885270513</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169">
         <v>376</v>
       </c>
       <c r="B169">
         <v>376</v>
       </c>
-      <c r="C169" t="s">
-        <v>7</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D169">
-        <v>7923.2011163073203</v>
+        <v>7923.20111630732</v>
       </c>
       <c r="E169">
         <v>24.4689739012092</v>
       </c>
       <c r="F169">
-        <v>2184.0874465849902</v>
+        <v>2184.08744658499</v>
       </c>
       <c r="G169">
-        <v>203407.24147126701</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203407.241471267</v>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170">
         <v>377</v>
       </c>
       <c r="B170">
         <v>377</v>
       </c>
-      <c r="C170" t="s">
-        <v>7</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D170">
-        <v>4358.3056862783196</v>
+        <v>4358.30568627832</v>
       </c>
       <c r="E170">
-        <v>87.840277470636195</v>
+        <v>87.8402774706362</v>
       </c>
       <c r="F170">
-        <v>51.015837538471096</v>
+        <v>51.0158375384711</v>
       </c>
       <c r="G170">
-        <v>99200.131166216597</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99200.1311662166</v>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171">
         <v>379</v>
       </c>
       <c r="B171">
         <v>379</v>
       </c>
-      <c r="C171" t="s">
-        <v>9</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Pos</t>
+        </is>
       </c>
       <c r="D171">
-        <v>6706.5644327332502</v>
+        <v>6706.56443273325</v>
       </c>
       <c r="E171">
-        <v>25.498535379585899</v>
+        <v>25.4985353795859</v>
       </c>
       <c r="F171">
-        <v>547.59830806899197</v>
+        <v>547.598308068992</v>
       </c>
       <c r="G171">
-        <v>64713.473596132397</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64713.4735961324</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172">
         <v>523</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172" t="s">
-        <v>8</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D172">
-        <v>10819.892062486801</v>
+        <v>10819.8920624868</v>
       </c>
       <c r="E172">
-        <v>532.64733323042503</v>
+        <v>532.647333230425</v>
       </c>
       <c r="F172">
         <v>1867.47744343164</v>
@@ -4294,101 +4555,111 @@
         <v>1475695.77113893</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173">
         <v>524</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
-      <c r="C173" t="s">
-        <v>7</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D173">
-        <v>7946.6537393054195</v>
+        <v>7946.65373930542</v>
       </c>
       <c r="E173">
-        <v>423.87882428270098</v>
+        <v>423.878824282701</v>
       </c>
       <c r="F173">
-        <v>45.892646720139098</v>
+        <v>45.8926467201391</v>
       </c>
       <c r="G173">
-        <v>394419.75876039499</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>394419.758760395</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174">
         <v>525</v>
       </c>
       <c r="B174">
         <v>3</v>
       </c>
-      <c r="C174" t="s">
-        <v>7</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D174">
         <v>14109.8974507396</v>
       </c>
       <c r="F174">
-        <v>9120.0835010390092</v>
+        <v>9120.083501039009</v>
       </c>
       <c r="G174">
-        <v>235984.65331496499</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>235984.653314965</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175">
         <v>526</v>
       </c>
       <c r="B175">
         <v>4</v>
       </c>
-      <c r="C175" t="s">
-        <v>7</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D175">
-        <v>6662.2786937434803</v>
+        <v>6662.27869374348</v>
       </c>
       <c r="E175">
-        <v>198.42018463811601</v>
+        <v>198.420184638116</v>
       </c>
       <c r="F175">
-        <v>552.84393215033003</v>
+        <v>552.84393215033</v>
       </c>
       <c r="G175">
         <v>121246.46475394</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176">
         <v>527</v>
       </c>
       <c r="B176">
         <v>5</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D176">
         <v>1076.61703463604</v>
       </c>
       <c r="F176">
-        <v>5656.8030584609696</v>
+        <v>5656.80305846097</v>
       </c>
       <c r="G176">
         <v>15752.0209528128</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177">
         <v>528</v>
       </c>
       <c r="B177">
         <v>6</v>
       </c>
-      <c r="C177" t="s">
-        <v>8</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D177">
         <v>10366.8719909064</v>
@@ -4400,104 +4671,114 @@
         <v>562.832928783017</v>
       </c>
       <c r="G177">
-        <v>998573.68873857602</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+        <v>998573.688738576</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178">
         <v>530</v>
       </c>
       <c r="B178">
         <v>8</v>
       </c>
-      <c r="C178" t="s">
-        <v>7</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D178">
-        <v>4594.0261978604703</v>
+        <v>4594.02619786047</v>
       </c>
       <c r="E178">
-        <v>255.09884242616201</v>
+        <v>255.098842426162</v>
       </c>
       <c r="F178">
         <v>217.441462853514</v>
       </c>
       <c r="G178">
-        <v>52825.372423034001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52825.372423034</v>
+      </c>
+    </row>
+    <row r="179">
       <c r="A179">
         <v>531</v>
       </c>
       <c r="B179">
         <v>9</v>
       </c>
-      <c r="C179" t="s">
-        <v>7</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D179">
         <v>7379.53179378599</v>
       </c>
       <c r="E179">
-        <v>26.133570470050302</v>
+        <v>26.1335704700503</v>
       </c>
       <c r="F179">
-        <v>4453.6212503656097</v>
+        <v>4453.62125036561</v>
       </c>
       <c r="G179">
-        <v>209123.32734130399</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>209123.327341304</v>
+      </c>
+    </row>
+    <row r="180">
       <c r="A180">
         <v>534</v>
       </c>
       <c r="B180">
         <v>12</v>
       </c>
-      <c r="C180" t="s">
-        <v>7</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D180">
-        <v>3595.3888245436601</v>
+        <v>3595.38882454366</v>
       </c>
       <c r="F180">
         <v>620.204466399274</v>
       </c>
       <c r="G180">
-        <v>282457.71105040697</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282457.711050407</v>
+      </c>
+    </row>
+    <row r="181">
       <c r="A181">
         <v>536</v>
       </c>
       <c r="B181">
         <v>14</v>
       </c>
-      <c r="C181" t="s">
-        <v>7</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D181">
-        <v>1719.7732470316701</v>
+        <v>1719.77324703167</v>
       </c>
       <c r="F181">
-        <v>224.36509752216699</v>
+        <v>224.365097522167</v>
       </c>
       <c r="G181">
         <v>1122008.99231861</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182">
         <v>537</v>
       </c>
       <c r="B182">
         <v>15</v>
       </c>
-      <c r="C182" t="s">
-        <v>7</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D182">
         <v>10554.8065386772</v>
@@ -4506,124 +4787,136 @@
         <v>218.506969455525</v>
       </c>
       <c r="F182">
-        <v>2646.8239964602799</v>
+        <v>2646.82399646028</v>
       </c>
       <c r="G182">
-        <v>533447.48499850102</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>533447.484998501</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183">
         <v>538</v>
       </c>
       <c r="B183">
         <v>16</v>
       </c>
-      <c r="C183" t="s">
-        <v>8</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D183">
-        <v>423.53016304564301</v>
+        <v>423.530163045643</v>
       </c>
       <c r="F183">
-        <v>75.389985872755403</v>
+        <v>75.3899858727554</v>
       </c>
       <c r="G183">
-        <v>2531.6338577394799</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2531.63385773948</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184">
         <v>539</v>
       </c>
       <c r="B184">
         <v>17</v>
       </c>
-      <c r="C184" t="s">
-        <v>8</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D184">
-        <v>5030.8979059308804</v>
+        <v>5030.89790593088</v>
       </c>
       <c r="F184">
         <v>247.756929921894</v>
       </c>
       <c r="G184">
-        <v>742590.17524010304</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+        <v>742590.175240103</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185">
         <v>540</v>
       </c>
       <c r="B185">
         <v>18</v>
       </c>
-      <c r="C185" t="s">
-        <v>7</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D185">
-        <v>3149.1674718272202</v>
+        <v>3149.16747182722</v>
       </c>
       <c r="F185">
-        <v>404.14790233666099</v>
+        <v>404.147902336661</v>
       </c>
       <c r="G185">
-        <v>50631.408714820602</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>50631.4087148206</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186">
         <v>543</v>
       </c>
       <c r="B186">
         <v>21</v>
       </c>
-      <c r="C186" t="s">
-        <v>8</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D186">
         <v>10284.0810265786</v>
       </c>
       <c r="E186">
-        <v>769.47437372967204</v>
+        <v>769.474373729672</v>
       </c>
       <c r="F186">
-        <v>717.21720440463503</v>
+        <v>717.217204404635</v>
       </c>
       <c r="G186">
-        <v>3329804.9633540302</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3329804.96335403</v>
+      </c>
+    </row>
+    <row r="187">
       <c r="A187">
         <v>545</v>
       </c>
       <c r="B187">
         <v>23</v>
       </c>
-      <c r="C187" t="s">
-        <v>8</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D187">
-        <v>358.80811036421102</v>
+        <v>358.808110364211</v>
       </c>
       <c r="F187">
-        <v>3968.9282032845799</v>
+        <v>3968.92820328458</v>
       </c>
       <c r="G187">
-        <v>5563.2924859698496</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5563.29248596985</v>
+      </c>
+    </row>
+    <row r="188">
       <c r="A188">
         <v>547</v>
       </c>
       <c r="B188">
         <v>25</v>
       </c>
-      <c r="C188" t="s">
-        <v>8</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D188">
         <v>648.370373134283</v>
@@ -4632,41 +4925,45 @@
         <v>1017.66638403124</v>
       </c>
       <c r="G188">
-        <v>66007.014910703496</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66007.0149107035</v>
+      </c>
+    </row>
+    <row r="189">
       <c r="A189">
         <v>549</v>
       </c>
       <c r="B189">
         <v>27</v>
       </c>
-      <c r="C189" t="s">
-        <v>7</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D189">
-        <v>2965.0970478393101</v>
+        <v>2965.09704783931</v>
       </c>
       <c r="F189">
-        <v>556.40425527954403</v>
+        <v>556.404255279544</v>
       </c>
       <c r="G189">
-        <v>59090.568830132201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59090.5688301322</v>
+      </c>
+    </row>
+    <row r="190">
       <c r="A190">
         <v>551</v>
       </c>
       <c r="B190">
         <v>29</v>
       </c>
-      <c r="C190" t="s">
-        <v>7</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D190">
-        <v>14516.526887664601</v>
+        <v>14516.5268876646</v>
       </c>
       <c r="E190">
         <v>1070.99473778028</v>
@@ -4675,176 +4972,192 @@
         <v>128.208299808118</v>
       </c>
       <c r="G190">
-        <v>15204026.802166799</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15204026.8021668</v>
+      </c>
+    </row>
+    <row r="191">
       <c r="A191">
         <v>552</v>
       </c>
       <c r="B191">
         <v>30</v>
       </c>
-      <c r="C191" t="s">
-        <v>7</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D191">
         <v>11308.029710495</v>
       </c>
       <c r="E191">
-        <v>80.935175284969304</v>
+        <v>80.9351752849693</v>
       </c>
       <c r="F191">
-        <v>543.15614286447703</v>
+        <v>543.156142864477</v>
       </c>
       <c r="G191">
         <v>138313.620975425</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192">
         <v>555</v>
       </c>
       <c r="B192">
         <v>33</v>
       </c>
-      <c r="C192" t="s">
-        <v>8</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D192">
-        <v>1685.5337042363601</v>
+        <v>1685.53370423636</v>
       </c>
       <c r="E192">
         <v>22.2458410939036</v>
       </c>
       <c r="F192">
-        <v>766.80973335031604</v>
+        <v>766.809733350316</v>
       </c>
       <c r="G192">
-        <v>19464.333719549701</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19464.3337195497</v>
+      </c>
+    </row>
+    <row r="193">
       <c r="A193">
         <v>556</v>
       </c>
       <c r="B193">
         <v>34</v>
       </c>
-      <c r="C193" t="s">
-        <v>7</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D193">
-        <v>2066.9423109252002</v>
+        <v>2066.9423109252</v>
       </c>
       <c r="E193">
-        <v>46.045459445924898</v>
+        <v>46.0454594459249</v>
       </c>
       <c r="F193">
-        <v>130.65437068551401</v>
+        <v>130.654370685514</v>
       </c>
       <c r="G193">
-        <v>901487.13122335402</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>901487.131223354</v>
+      </c>
+    </row>
+    <row r="194">
       <c r="A194">
         <v>558</v>
       </c>
       <c r="B194">
         <v>36</v>
       </c>
-      <c r="C194" t="s">
-        <v>7</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D194">
         <v>11351.6782340597</v>
       </c>
       <c r="E194">
-        <v>66.802449157571303</v>
+        <v>66.8024491575713</v>
       </c>
       <c r="F194">
-        <v>637.57928058298705</v>
+        <v>637.5792805829871</v>
       </c>
       <c r="G194">
         <v>135663.536692327</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195">
         <v>559</v>
       </c>
       <c r="B195">
         <v>37</v>
       </c>
-      <c r="C195" t="s">
-        <v>7</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D195">
-        <v>9797.1955518927607</v>
+        <v>9797.195551892761</v>
       </c>
       <c r="E195">
         <v>36.9438238810651</v>
       </c>
       <c r="F195">
-        <v>816.13347184324402</v>
+        <v>816.133471843244</v>
       </c>
       <c r="G195">
-        <v>116338.28161912601</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116338.281619126</v>
+      </c>
+    </row>
+    <row r="196">
       <c r="A196">
         <v>560</v>
       </c>
       <c r="B196">
         <v>38</v>
       </c>
-      <c r="C196" t="s">
-        <v>8</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D196">
-        <v>3363.9967808010801</v>
+        <v>3363.99678080108</v>
       </c>
       <c r="F196">
         <v>275.296628369838</v>
       </c>
       <c r="G196">
-        <v>98612.844610951797</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98612.8446109518</v>
+      </c>
+    </row>
+    <row r="197">
       <c r="A197">
         <v>561</v>
       </c>
       <c r="B197">
         <v>39</v>
       </c>
-      <c r="C197" t="s">
-        <v>7</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D197">
-        <v>6523.3913859752702</v>
+        <v>6523.39138597527</v>
       </c>
       <c r="E197">
         <v>190.981377266999</v>
       </c>
       <c r="F197">
-        <v>527.06318580489403</v>
+        <v>527.063185804894</v>
       </c>
       <c r="G197">
-        <v>329095.31438544398</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>329095.314385444</v>
+      </c>
+    </row>
+    <row r="198">
       <c r="A198">
         <v>562</v>
       </c>
       <c r="B198">
         <v>40</v>
       </c>
-      <c r="C198" t="s">
-        <v>8</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D198">
         <v>8593.70602140749</v>
@@ -4853,122 +5166,132 @@
         <v>20.0295021323473</v>
       </c>
       <c r="F198">
-        <v>100.11414244996701</v>
+        <v>100.114142449967</v>
       </c>
       <c r="G198">
-        <v>84869.325177714505</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84869.32517771451</v>
+      </c>
+    </row>
+    <row r="199">
       <c r="A199">
         <v>565</v>
       </c>
       <c r="B199">
         <v>43</v>
       </c>
-      <c r="C199" t="s">
-        <v>8</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D199">
-        <v>52052.947078051802</v>
+        <v>52052.9470780518</v>
       </c>
       <c r="E199">
         <v>2548.57113301035</v>
       </c>
       <c r="F199">
-        <v>2729.5737008821702</v>
+        <v>2729.57370088217</v>
       </c>
       <c r="G199">
-        <v>6269942.5222785296</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6269942.52227853</v>
+      </c>
+    </row>
+    <row r="200">
       <c r="A200">
         <v>566</v>
       </c>
       <c r="B200">
         <v>44</v>
       </c>
-      <c r="C200" t="s">
-        <v>8</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D200">
-        <v>2142.6029133330499</v>
+        <v>2142.60291333305</v>
       </c>
       <c r="E200">
-        <v>18.358035641788401</v>
+        <v>18.3580356417884</v>
       </c>
       <c r="F200">
-        <v>512.34664553234097</v>
+        <v>512.346645532341</v>
       </c>
       <c r="G200">
-        <v>76368.683027048406</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76368.68302704841</v>
+      </c>
+    </row>
+    <row r="201">
       <c r="A201">
         <v>568</v>
       </c>
       <c r="B201">
         <v>46</v>
       </c>
-      <c r="C201" t="s">
-        <v>8</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D201">
-        <v>4522.6129035784397</v>
+        <v>4522.61290357844</v>
       </c>
       <c r="E201">
-        <v>21.074731445282101</v>
+        <v>21.0747314452821</v>
       </c>
       <c r="F201">
-        <v>222.00379217673699</v>
+        <v>222.003792176737</v>
       </c>
       <c r="G201">
-        <v>68716.843618494604</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68716.8436184946</v>
+      </c>
+    </row>
+    <row r="202">
       <c r="A202">
         <v>569</v>
       </c>
       <c r="B202">
         <v>47</v>
       </c>
-      <c r="C202" t="s">
-        <v>7</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
       </c>
       <c r="D202">
         <v>10725.5124549962</v>
       </c>
       <c r="E202">
-        <v>233.74561706815001</v>
+        <v>233.74561706815</v>
       </c>
       <c r="F202">
-        <v>3287.4836634715498</v>
+        <v>3287.48366347155</v>
       </c>
       <c r="G202">
         <v>136855.258968604</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203">
         <v>572</v>
       </c>
       <c r="B203">
         <v>50</v>
       </c>
-      <c r="C203" t="s">
-        <v>8</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
       </c>
       <c r="D203">
-        <v>4691.6694465158698</v>
+        <v>4691.66944651587</v>
       </c>
       <c r="F203">
-        <v>302.27305247375199</v>
+        <v>302.273052473752</v>
       </c>
       <c r="G203">
-        <v>83880.459505650797</v>
+        <v>83880.4595056508</v>
       </c>
     </row>
   </sheetData>

--- a/assay_master_sheet.xlsx
+++ b/assay_master_sheet.xlsx
@@ -375,22 +375,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Urine_sFas_V1 (pg/mL)</t>
+          <t>urine_sfas_V1 (pg/mL)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Urine_Ang-2_V1 (pg/mL)</t>
+          <t>urine_ang-2_V1 (pg/mL)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Urine_IL-18_V1 (pg/mL)</t>
+          <t>urine_il18_V1 (pg/mL)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Urine_NGAL_V1 (pg/mL)</t>
+          <t>urine_ngal_V1 (pg/mL)</t>
         </is>
       </c>
     </row>
